--- a/FPH_Linear/285-FPH-Relatório-Reg-D-JIRAU       .xlsx
+++ b/FPH_Linear/285-FPH-Relatório-Reg-D-JIRAU       .xlsx
@@ -957,7 +957,7 @@
         <v>1.601956578096315</v>
       </c>
       <c r="E2">
-        <v>-0.06732869719490833</v>
+        <v>-2.222760137215925</v>
       </c>
       <c r="F2">
         <v>-1373.292861127953</v>
@@ -966,7 +966,7 @@
         <v>5.369981185271023</v>
       </c>
       <c r="H2">
-        <v>9.546104897773585</v>
+        <v>8.992010092935002</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -983,7 +983,7 @@
         <v>1.28392903397993</v>
       </c>
       <c r="E3">
-        <v>-0.04301169284915869</v>
+        <v>-0.6969720333421249</v>
       </c>
       <c r="F3">
         <v>-1332.846925947259</v>
@@ -1003,7 +1003,7 @@
         <v>1.265521974676407</v>
       </c>
       <c r="E4">
-        <v>-0.04160425330702767</v>
+        <v>-0.6086612167723012</v>
       </c>
       <c r="F4">
         <v>-1316.729475519288</v>
@@ -1023,7 +1023,7 @@
         <v>1.048008211908616</v>
       </c>
       <c r="E5">
-        <v>-0.03051656983990208</v>
+        <v>0.08704353752714891</v>
       </c>
       <c r="F5">
         <v>-1207.669171464003</v>
@@ -1043,7 +1043,7 @@
         <v>1.015843713208724</v>
       </c>
       <c r="E6">
-        <v>-0.02969678313784426</v>
+        <v>0.1384816497193028</v>
       </c>
       <c r="F6">
         <v>-1203.578572226287</v>
@@ -1063,7 +1063,7 @@
         <v>0.8933776734653625</v>
       </c>
       <c r="E7">
-        <v>-0.02657545263703261</v>
+        <v>0.3343317996259993</v>
       </c>
       <c r="F7">
         <v>-1096.345782233816</v>
@@ -1083,7 +1083,7 @@
         <v>0.8528443014298303</v>
       </c>
       <c r="E8">
-        <v>-0.02657545263703267</v>
+        <v>0.3343317996259955</v>
       </c>
       <c r="F8">
         <v>-1065.910355777536</v>
@@ -1103,7 +1103,7 @@
         <v>0.4201303122696685</v>
       </c>
       <c r="E9">
-        <v>-0.02657545263703261</v>
+        <v>0.3343317996259993</v>
       </c>
       <c r="F9">
         <v>-525.0914497212425</v>
@@ -1123,7 +1123,7 @@
         <v>0.1816096541823805</v>
       </c>
       <c r="E10">
-        <v>-0.03468112075228237</v>
+        <v>-0.1742642349985929</v>
       </c>
       <c r="F10">
         <v>-226.981186105872</v>
@@ -1143,7 +1143,7 @@
         <v>0.04412763394768424</v>
       </c>
       <c r="E11">
-        <v>-0.0486973108396252</v>
+        <v>-1.053720264731119</v>
       </c>
       <c r="F11">
         <v>-55.15203879763151</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-0.06219364958543896</v>
+        <v>-1.900557844369626</v>
       </c>
       <c r="F12">
         <v>0</v>

--- a/FPH_Linear/285-FPH-Relatório-Reg-D-JIRAU       .xlsx
+++ b/FPH_Linear/285-FPH-Relatório-Reg-D-JIRAU       .xlsx
@@ -957,7 +957,7 @@
         <v>1.601956578096315</v>
       </c>
       <c r="E2">
-        <v>-2.222760137215925</v>
+        <v>-0.05108012377776186</v>
       </c>
       <c r="F2">
         <v>-1373.292861127953</v>
@@ -966,7 +966,7 @@
         <v>5.369981185271023</v>
       </c>
       <c r="H2">
-        <v>8.992010092935002</v>
+        <v>16.51026612150029</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -983,7 +983,7 @@
         <v>1.28392903397993</v>
       </c>
       <c r="E3">
-        <v>-0.6969720333421249</v>
+        <v>-0.04089851268760215</v>
       </c>
       <c r="F3">
         <v>-1332.846925947259</v>
@@ -1003,7 +1003,7 @@
         <v>1.265521974676407</v>
       </c>
       <c r="E4">
-        <v>-0.6086612167723012</v>
+        <v>-0.04030921304167782</v>
       </c>
       <c r="F4">
         <v>-1316.729475519288</v>
@@ -1023,7 +1023,7 @@
         <v>1.048008211908616</v>
       </c>
       <c r="E5">
-        <v>0.08704353752714891</v>
+        <v>-0.03566676287191429</v>
       </c>
       <c r="F5">
         <v>-1207.669171464003</v>
@@ -1043,7 +1043,7 @@
         <v>1.015843713208724</v>
       </c>
       <c r="E6">
-        <v>0.1384816497193028</v>
+        <v>-0.03532351543655754</v>
       </c>
       <c r="F6">
         <v>-1203.578572226287</v>
@@ -1063,7 +1063,7 @@
         <v>0.8933776734653625</v>
       </c>
       <c r="E7">
-        <v>0.3343317996259993</v>
+        <v>-0.03401660391113881</v>
       </c>
       <c r="F7">
         <v>-1096.345782233816</v>
@@ -1083,7 +1083,7 @@
         <v>0.8528443014298303</v>
       </c>
       <c r="E8">
-        <v>0.3343317996259955</v>
+        <v>-0.03401660391113884</v>
       </c>
       <c r="F8">
         <v>-1065.910355777536</v>
@@ -1103,7 +1103,7 @@
         <v>0.4201303122696685</v>
       </c>
       <c r="E9">
-        <v>0.3343317996259993</v>
+        <v>-0.03401660391113881</v>
       </c>
       <c r="F9">
         <v>-525.0914497212425</v>
@@ -1123,7 +1123,7 @@
         <v>0.1816096541823805</v>
       </c>
       <c r="E10">
-        <v>-0.1742642349985929</v>
+        <v>-0.03741047427452533</v>
       </c>
       <c r="F10">
         <v>-226.981186105872</v>
@@ -1143,7 +1143,7 @@
         <v>0.04412763394768424</v>
       </c>
       <c r="E11">
-        <v>-1.053720264731119</v>
+        <v>-0.04327909996566726</v>
       </c>
       <c r="F11">
         <v>-55.15203879763151</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-1.900557844369626</v>
+        <v>-0.04893006216056229</v>
       </c>
       <c r="F12">
         <v>0</v>
